--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/15/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>5.896599999999999</v>
+        <v>6.232499999999996</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.37310000000003</v>
+        <v>-21.49020000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.795500000000001</v>
+        <v>4.9854</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.47289999999998</v>
+        <v>-20.53299999999997</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.33570000000002</v>
+        <v>-21.26320000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.37790000000002</v>
+        <v>-21.41840000000003</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.55740000000003</v>
+        <v>-22.34580000000004</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
